--- a/data/trans_camb/P26A_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P26A_R-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-3,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,44</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>1,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,8</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,26</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,78</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-15,48; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-14,8; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-3,32; 26,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,65; 2,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,81; 2,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,41; 12,17</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>244,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>inf%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-21,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-21,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>261,7%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -834,6 +972,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,34</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,7</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>1,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,57</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-2,81</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,07; 9,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-9,44; 2,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-12,2; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 9,52</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 10,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-11,43; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,92; 7,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 5,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-8,44; -0,86</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>68,49%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-38,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>84,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>52,7%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>79,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,47%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1050,6 +1308,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,22</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-2,49</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-0,79</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,26; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,24; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,92; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 3,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,28; -0,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 4,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 1,61</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,53; -0,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 2,32</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>3,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-33,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-30,06%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1253,7 +1631,7 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-92,47; 226,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1263,7 +1641,37 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 373,54</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-1,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-2,78</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-5,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-3,14</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-2,14</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-4,43</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-1,5</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 3,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 0,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 6,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-7,7; 1,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-9,71; -1,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 1,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 1,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-7,67; -1,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 2,31</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-24,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-72,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>10,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-46,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-84,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-52,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-38,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-80,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-27,23%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1937,77 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-86,55; 239,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 51,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-80,06; 364,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-81,88; 47,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -17,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-89,94; 69,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-72,5; 40,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-94,56; -36,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-72,02; 74,74</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>1,45</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-1,37</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-0,02</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-1,47</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,64</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,64</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 4,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 1,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 0,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-3,21; 2,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-4,77; 0,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,69; 3,18</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 2,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,64; 0,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 0,94</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>105,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-19,57%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-1,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-78,87%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>38,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-55,29%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-38,96%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1680,12 +2298,12 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-62,23; 466,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -1695,7 +2313,37 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 174,92</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-2,53</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,61</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-3,17</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-1,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-2,2</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>-1,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-1,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-2,37</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-2,3</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-6,02; -0,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-5,81; -0,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,59; -1,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 1,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-4,97; -0,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 0,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 0,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-4,29; -1,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-4,18; -0,84</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-79,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-82,36%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-48,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-100,0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-75,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-64,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-91,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-88,29%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1886,7 +2624,7 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 332,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -1896,22 +2634,52 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-92,08; 46,64</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -17,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -27,07</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-1,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,55</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-2,04</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,76</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-2,06</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>-1,25</t>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-2,81; 0,6</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-3,78; -0,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-3,04; 0,77</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 0,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-3,5; -0,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 0,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,96; 0,34</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-3,08; -1,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 0,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-36,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-71,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-40,95%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-19,07%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-71,04%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-45,23%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-26,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-71,34%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>-43,39%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-69,38; 40,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-89,89; -22,35</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-76,93; 50,53</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-58,99; 44,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-90,16; -24,95</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-75,52; 19,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-54,7; 15,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-86,33; -47,79</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-67,5; 0,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
